--- a/biology/Botanique/Marie-Hélène_Sachet/Marie-Hélène_Sachet.xlsx
+++ b/biology/Botanique/Marie-Hélène_Sachet/Marie-Hélène_Sachet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Marie-H%C3%A9l%C3%A8ne_Sachet</t>
+          <t>Marie-Hélène_Sachet</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Marie-Hélène Sachet (19 avril 1922-10 juillet 1986[3]) est une  botaniste française. En 1966, elle commence à travailler à la Smithsonian Institution, atteignant le poste de conservateur de botanique au National Museum of Natural History[4]. Elle a participé aux travaux de Francis Raymond Fosberg.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marie-Hélène Sachet (19 avril 1922-10 juillet 1986) est une  botaniste française. En 1966, elle commence à travailler à la Smithsonian Institution, atteignant le poste de conservateur de botanique au National Museum of Natural History. Elle a participé aux travaux de Francis Raymond Fosberg.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Marie-H%C3%A9l%C3%A8ne_Sachet</t>
+          <t>Marie-Hélène_Sachet</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Végétation et flore terrestre de l'atoll de Scilly (Fenua Ura), Marie-Hélène Sachet, 1983, collection Persée, Journal de la Société des Océanistes, MESR, [1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Végétation et flore terrestre de l'atoll de Scilly (Fenua Ura), Marie-Hélène Sachet, 1983, collection Persée, Journal de la Société des Océanistes, MESR, .</t>
         </is>
       </c>
     </row>
